--- a/xlsx/墨西哥薄饼_intext.xlsx
+++ b/xlsx/墨西哥薄饼_intext.xlsx
@@ -29,7 +29,7 @@
     <t>墨西哥</t>
   </si>
   <si>
-    <t>政策_政策_美國_墨西哥薄饼</t>
+    <t>政策_政策_美国_墨西哥薄饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E8%83%83%E8%8F%9C</t>
   </si>
   <si>
-    <t>開胃菜</t>
+    <t>开胃菜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%90%83</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%88%B4%E8%96%AF%E7%89%87</t>
   </si>
   <si>
-    <t>馬鈴薯片</t>
+    <t>马铃薯片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3%E7%89%87</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E9%BA%97%E9%A4%85</t>
   </si>
   <si>
-    <t>可麗餅</t>
+    <t>可丽饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%84%E7%83%A4%E9%A4%85</t>
   </si>
   <si>
-    <t>薄烤餅</t>
+    <t>薄烤饼</t>
   </si>
 </sst>
 </file>
